--- a/Projections/projections_espn.xlsx
+++ b/Projections/projections_espn.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kniu91/Documents/Kevin's Folders/Grad Schools/UChicago MPCS/Fall 2022/fantasyProjections/Projections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BDACF2-A962-F64A-A877-B5F63CDE5771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAC4C79-08FF-8C48-8EF0-FDC2EAB13EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15680" xr2:uid="{F82C7B9A-CED3-FB43-8FFD-A867A48B7FDC}"/>
   </bookViews>
   <sheets>
     <sheet name="projections" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">projections!$G$1:$G$33</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="789">
   <si>
     <t>RANK</t>
   </si>
@@ -1580,6 +1581,102 @@
   </si>
   <si>
     <t>Damien Williams</t>
+  </si>
+  <si>
+    <t>'ARI'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ATL'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BAL'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'BUF'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CAR'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CHI'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CIN'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'CLE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'DAL'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'DEN'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'DET'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'GNB'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'HOU'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'IND'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'JAX'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'KAN'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'LAC'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'LAR'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'LVR'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'MIA'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'MIN'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NOR'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NWE'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NYG'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'NYJ'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PHI'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'PIT'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'SEA'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'SFO'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TAM'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'TEN'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'WAS'</t>
   </si>
   <si>
     <t>Trey Lance</t>
@@ -3154,7 +3251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3169,6 +3266,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3485,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375E02D9-A26B-2947-9BAF-454C685A3FD2}">
   <dimension ref="A1:J505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="A505" sqref="A505"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3839,7 +3937,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
         <v>77</v>
@@ -7392,7 +7490,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="B206" t="s">
         <v>200</v>
@@ -7411,7 +7509,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="B207" t="s">
         <v>261</v>
@@ -7430,10 +7528,10 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="B208" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="C208" t="str">
         <f t="shared" si="6"/>
@@ -7449,7 +7547,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="B209" t="s">
         <v>107</v>
@@ -7468,7 +7566,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="B210" t="s">
         <v>206</v>
@@ -7487,7 +7585,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="B211" t="s">
         <v>87</v>
@@ -7506,7 +7604,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="B212" t="s">
         <v>184</v>
@@ -7525,7 +7623,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B213" t="s">
         <v>192</v>
@@ -7544,7 +7642,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="B214" t="s">
         <v>194</v>
@@ -7563,7 +7661,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="B215" t="s">
         <v>90</v>
@@ -7582,7 +7680,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="B216" t="s">
         <v>86</v>
@@ -7601,10 +7699,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="B217" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="C217" t="str">
         <f t="shared" si="6"/>
@@ -7620,10 +7718,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="B218" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="C218" t="str">
         <f t="shared" si="6"/>
@@ -7639,10 +7737,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="B219" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="C219" t="str">
         <f t="shared" si="6"/>
@@ -7658,10 +7756,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="B220" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="C220" t="str">
         <f t="shared" si="6"/>
@@ -7677,7 +7775,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="B221" t="s">
         <v>265</v>
@@ -7696,7 +7794,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="B222" t="s">
         <v>207</v>
@@ -7715,10 +7813,10 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="B223" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="C223" t="str">
         <f t="shared" si="6"/>
@@ -7734,10 +7832,10 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="B224" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="C224" t="str">
         <f t="shared" si="6"/>
@@ -7753,10 +7851,10 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="B225" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="C225" t="str">
         <f t="shared" si="6"/>
@@ -7772,7 +7870,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="B226" t="s">
         <v>83</v>
@@ -7791,7 +7889,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="B227" t="s">
         <v>266</v>
@@ -7810,7 +7908,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="B228" t="s">
         <v>185</v>
@@ -7829,7 +7927,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="B229" t="s">
         <v>269</v>
@@ -7848,7 +7946,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="B230" t="s">
         <v>82</v>
@@ -7867,10 +7965,10 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="B231" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="C231" t="str">
         <f t="shared" si="6"/>
@@ -7886,10 +7984,10 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="B232" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="C232" t="str">
         <f t="shared" si="6"/>
@@ -7905,7 +8003,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="B233" t="s">
         <v>108</v>
@@ -7924,7 +8022,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="B234" t="s">
         <v>93</v>
@@ -7943,7 +8041,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="B235" t="s">
         <v>275</v>
@@ -7962,10 +8060,10 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="B236" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="C236" t="str">
         <f t="shared" si="6"/>
@@ -7981,10 +8079,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="B237" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="C237" t="str">
         <f t="shared" si="6"/>
@@ -8000,7 +8098,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="B238" t="s">
         <v>189</v>
@@ -8019,7 +8117,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="B239" t="s">
         <v>184</v>
@@ -8038,7 +8136,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="B240" t="s">
         <v>262</v>
@@ -8057,7 +8155,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="B241" t="s">
         <v>199</v>
@@ -8076,10 +8174,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="B242" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="C242" t="str">
         <f t="shared" si="6"/>
@@ -8095,7 +8193,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="B243" t="s">
         <v>176</v>
@@ -8114,7 +8212,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>417</v>
+        <v>449</v>
       </c>
       <c r="B244" t="s">
         <v>192</v>
@@ -8133,7 +8231,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="B245" t="s">
         <v>309</v>
@@ -8152,10 +8250,10 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>419</v>
+        <v>451</v>
       </c>
       <c r="B246" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="C246" t="str">
         <f t="shared" si="6"/>
@@ -8171,7 +8269,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="B247" t="s">
         <v>189</v>
@@ -8190,7 +8288,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>421</v>
+        <v>453</v>
       </c>
       <c r="B248" t="s">
         <v>180</v>
@@ -8209,7 +8307,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="B249" t="s">
         <v>102</v>
@@ -8228,7 +8326,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="B250" t="s">
         <v>68</v>
@@ -8247,7 +8345,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="B251" t="s">
         <v>68</v>
@@ -8266,7 +8364,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="B252" t="s">
         <v>211</v>
@@ -8285,7 +8383,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="B253" t="s">
         <v>201</v>
@@ -8304,10 +8402,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="B254" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="C254" t="str">
         <f t="shared" si="6"/>
@@ -8323,10 +8421,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="B255" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="C255" t="str">
         <f t="shared" si="6"/>
@@ -8342,7 +8440,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="B256" t="s">
         <v>207</v>
@@ -8361,7 +8459,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="B257" t="s">
         <v>95</v>
@@ -8380,7 +8478,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="B258" t="s">
         <v>212</v>
@@ -8399,10 +8497,10 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>447</v>
+        <v>479</v>
       </c>
       <c r="B259" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="C259" t="str">
         <f t="shared" ref="C259:C322" si="8">LEFT(B259,LEN(B259)-2)</f>
@@ -8418,10 +8516,10 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="B260" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="C260" t="str">
         <f t="shared" si="8"/>
@@ -8437,7 +8535,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="B261" t="s">
         <v>312</v>
@@ -8456,7 +8554,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="B262" t="s">
         <v>102</v>
@@ -8475,10 +8573,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="B263" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="C263" t="str">
         <f t="shared" si="8"/>
@@ -8494,7 +8592,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="B264" t="s">
         <v>260</v>
@@ -8513,7 +8611,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="B265" t="s">
         <v>206</v>
@@ -8532,10 +8630,10 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>451</v>
+        <v>483</v>
       </c>
       <c r="B266" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="C266" t="str">
         <f t="shared" si="8"/>
@@ -8551,7 +8649,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="B267" t="s">
         <v>184</v>
@@ -8570,10 +8668,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="B268" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="C268" t="str">
         <f t="shared" si="8"/>
@@ -8589,7 +8687,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="B269" t="s">
         <v>76</v>
@@ -8608,7 +8706,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>455</v>
+        <v>487</v>
       </c>
       <c r="B270" t="s">
         <v>195</v>
@@ -8627,7 +8725,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="B271" t="s">
         <v>342</v>
@@ -8646,10 +8744,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="B272" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="C272" t="str">
         <f t="shared" si="8"/>
@@ -8665,7 +8763,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="B273" t="s">
         <v>95</v>
@@ -8684,7 +8782,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="B274" t="s">
         <v>347</v>
@@ -8703,10 +8801,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="B275" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="C275" t="str">
         <f t="shared" si="8"/>
@@ -8722,7 +8820,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="B276" t="s">
         <v>194</v>
@@ -8741,7 +8839,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>461</v>
+        <v>493</v>
       </c>
       <c r="B277" t="s">
         <v>67</v>
@@ -8760,7 +8858,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="B278" t="s">
         <v>86</v>
@@ -8779,7 +8877,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="B279" t="s">
         <v>198</v>
@@ -8798,7 +8896,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="B280" t="s">
         <v>174</v>
@@ -8817,7 +8915,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>465</v>
+        <v>497</v>
       </c>
       <c r="B281" t="s">
         <v>313</v>
@@ -8836,7 +8934,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="B282" t="s">
         <v>87</v>
@@ -8855,7 +8953,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="B283" t="s">
         <v>264</v>
@@ -8874,7 +8972,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="B284" t="s">
         <v>203</v>
@@ -8893,7 +8991,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="B285" t="s">
         <v>209</v>
@@ -8912,7 +9010,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="B286" t="s">
         <v>199</v>
@@ -8931,7 +9029,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="B287" t="s">
         <v>344</v>
@@ -8950,7 +9048,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="B288" t="s">
         <v>105</v>
@@ -8969,7 +9067,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="B289" t="s">
         <v>76</v>
@@ -8988,7 +9086,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="B290" t="s">
         <v>185</v>
@@ -9007,7 +9105,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="B291" t="s">
         <v>203</v>
@@ -9026,7 +9124,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="B292" t="s">
         <v>306</v>
@@ -9045,7 +9143,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="B293" t="s">
         <v>82</v>
@@ -9064,10 +9162,10 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="B294" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="C294" t="str">
         <f t="shared" si="8"/>
@@ -9083,7 +9181,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="B295" t="s">
         <v>174</v>
@@ -9102,7 +9200,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="B296" t="s">
         <v>188</v>
@@ -9121,10 +9219,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="B297" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="C297" t="str">
         <f t="shared" si="8"/>
@@ -9140,7 +9238,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="B298" t="s">
         <v>67</v>
@@ -9159,7 +9257,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="B299" t="s">
         <v>76</v>
@@ -9178,7 +9276,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="B300" t="s">
         <v>345</v>
@@ -9197,7 +9295,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="B301" t="s">
         <v>346</v>
@@ -9216,7 +9314,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="B302" t="s">
         <v>277</v>
@@ -9235,7 +9333,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="B303" t="s">
         <v>92</v>
@@ -9254,7 +9352,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="B304" t="s">
         <v>98</v>
@@ -9273,7 +9371,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="B305" t="s">
         <v>265</v>
@@ -9292,7 +9390,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="B306" t="s">
         <v>270</v>
@@ -9311,10 +9409,10 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="B307" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="C307" t="str">
         <f t="shared" si="8"/>
@@ -9330,10 +9428,10 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="B308" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="C308" t="str">
         <f t="shared" si="8"/>
@@ -9349,7 +9447,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="B309" t="s">
         <v>174</v>
@@ -9368,7 +9466,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="B310" t="s">
         <v>310</v>
@@ -9387,7 +9485,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="B311" t="s">
         <v>74</v>
@@ -9406,7 +9504,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="B312" t="s">
         <v>107</v>
@@ -9425,7 +9523,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="B313" t="s">
         <v>93</v>
@@ -9444,7 +9542,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="B314" t="s">
         <v>343</v>
@@ -9463,7 +9561,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="B315" t="s">
         <v>207</v>
@@ -9482,7 +9580,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="B316" t="s">
         <v>347</v>
@@ -9501,7 +9599,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="B317" t="s">
         <v>64</v>
@@ -9520,10 +9618,10 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="B318" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="C318" t="str">
         <f t="shared" si="8"/>
@@ -9539,7 +9637,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="B319" t="s">
         <v>182</v>
@@ -9558,7 +9656,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="B320" t="s">
         <v>204</v>
@@ -9577,7 +9675,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="B321" t="s">
         <v>188</v>
@@ -9596,7 +9694,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="B322" t="s">
         <v>186</v>
@@ -9615,7 +9713,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="B323" t="s">
         <v>196</v>
@@ -9634,7 +9732,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="B324" t="s">
         <v>187</v>
@@ -9653,7 +9751,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="B325" t="s">
         <v>187</v>
@@ -9672,7 +9770,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="B326" t="s">
         <v>174</v>
@@ -9691,10 +9789,10 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="B327" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="C327" t="str">
         <f t="shared" si="10"/>
@@ -9710,7 +9808,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="B328" t="s">
         <v>81</v>
@@ -9729,7 +9827,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="B329" t="s">
         <v>273</v>
@@ -9748,7 +9846,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="B330" t="s">
         <v>96</v>
@@ -9767,7 +9865,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="B331" t="s">
         <v>63</v>
@@ -9786,7 +9884,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="B332" t="s">
         <v>202</v>
@@ -9805,7 +9903,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="B333" t="s">
         <v>208</v>
@@ -9824,7 +9922,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="B334" t="s">
         <v>266</v>
@@ -9843,10 +9941,10 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="B335" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="C335" t="str">
         <f t="shared" si="10"/>
@@ -9862,7 +9960,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="B336" t="s">
         <v>203</v>
@@ -9881,7 +9979,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="B337" t="s">
         <v>180</v>
@@ -9900,7 +9998,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B338" t="s">
         <v>176</v>
@@ -9919,7 +10017,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="B339" t="s">
         <v>87</v>
@@ -9938,7 +10036,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="B340" t="s">
         <v>194</v>
@@ -9957,7 +10055,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="B341" t="s">
         <v>177</v>
@@ -9976,7 +10074,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="B342" t="s">
         <v>99</v>
@@ -9995,7 +10093,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="B343" t="s">
         <v>65</v>
@@ -10014,7 +10112,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="B344" t="s">
         <v>308</v>
@@ -10033,7 +10131,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="B345" t="s">
         <v>93</v>
@@ -10052,7 +10150,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="B346" t="s">
         <v>346</v>
@@ -10071,7 +10169,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="B347" t="s">
         <v>199</v>
@@ -10090,7 +10188,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="B348" t="s">
         <v>196</v>
@@ -10109,7 +10207,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="B349" t="s">
         <v>342</v>
@@ -10128,7 +10226,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="B350" t="s">
         <v>192</v>
@@ -10147,7 +10245,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="B351" t="s">
         <v>74</v>
@@ -10166,7 +10264,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="B352" t="s">
         <v>193</v>
@@ -10185,7 +10283,7 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="B353" t="s">
         <v>90</v>
@@ -10204,7 +10302,7 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="B354" t="s">
         <v>304</v>
@@ -10223,7 +10321,7 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="B355" t="s">
         <v>269</v>
@@ -10242,7 +10340,7 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="B356" t="s">
         <v>179</v>
@@ -10262,7 +10360,7 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="B357" t="s">
         <v>88</v>
@@ -10282,7 +10380,7 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="B358" t="s">
         <v>201</v>
@@ -10302,7 +10400,7 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="B359" t="s">
         <v>276</v>
@@ -10322,7 +10420,7 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>718</v>
+        <v>750</v>
       </c>
       <c r="B360" t="s">
         <v>83</v>
@@ -10342,7 +10440,7 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="B361" t="s">
         <v>263</v>
@@ -10362,7 +10460,7 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="B362" t="s">
         <v>206</v>
@@ -10382,7 +10480,7 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>719</v>
+        <v>751</v>
       </c>
       <c r="B363" t="s">
         <v>270</v>
@@ -10404,7 +10502,7 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>720</v>
+        <v>752</v>
       </c>
       <c r="B364" t="s">
         <v>178</v>
@@ -10424,7 +10522,7 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="B365" t="s">
         <v>191</v>
@@ -10444,7 +10542,7 @@
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="B366" t="s">
         <v>81</v>
@@ -10464,7 +10562,7 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="B367" t="s">
         <v>183</v>
@@ -10484,7 +10582,7 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="B368" t="s">
         <v>210</v>
@@ -10504,7 +10602,7 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="B369" t="s">
         <v>312</v>
@@ -10524,7 +10622,7 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>721</v>
+        <v>753</v>
       </c>
       <c r="B370" t="s">
         <v>197</v>
@@ -10544,7 +10642,7 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="B371" t="s">
         <v>273</v>
@@ -10564,7 +10662,7 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="B372" t="s">
         <v>263</v>
@@ -10584,7 +10682,7 @@
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="B373" t="s">
         <v>105</v>
@@ -10604,7 +10702,7 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>722</v>
+        <v>754</v>
       </c>
       <c r="B374" t="s">
         <v>95</v>
@@ -10624,7 +10722,7 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="B375" t="s">
         <v>268</v>
@@ -10644,7 +10742,7 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="B376" t="s">
         <v>344</v>
@@ -10664,7 +10762,7 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="B377" t="s">
         <v>61</v>
@@ -10684,7 +10782,7 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="B378" t="s">
         <v>266</v>
@@ -10704,7 +10802,7 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="B379" t="s">
         <v>269</v>
@@ -10724,7 +10822,7 @@
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="B380" t="s">
         <v>69</v>
@@ -10744,7 +10842,7 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="B381" t="s">
         <v>181</v>
@@ -10764,7 +10862,7 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="B382" t="s">
         <v>177</v>
@@ -10784,7 +10882,7 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="B383" t="s">
         <v>261</v>
@@ -10804,7 +10902,7 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="B384" t="s">
         <v>182</v>
@@ -10824,7 +10922,7 @@
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="B385" t="s">
         <v>89</v>
@@ -10844,7 +10942,7 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="B386" t="s">
         <v>60</v>
@@ -10864,7 +10962,7 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>724</v>
+        <v>756</v>
       </c>
       <c r="B387" t="s">
         <v>271</v>
@@ -10884,7 +10982,7 @@
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="B388" t="s">
         <v>78</v>
@@ -10904,7 +11002,7 @@
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="B389" t="s">
         <v>198</v>
@@ -10924,7 +11022,7 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="B390" t="s">
         <v>342</v>
@@ -10944,7 +11042,7 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>725</v>
+        <v>757</v>
       </c>
       <c r="B391" t="s">
         <v>311</v>
@@ -10964,7 +11062,7 @@
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>726</v>
+        <v>758</v>
       </c>
       <c r="B392" t="s">
         <v>98</v>
@@ -10984,7 +11082,7 @@
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="B393" t="s">
         <v>190</v>
@@ -11004,7 +11102,7 @@
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="B394" t="s">
         <v>88</v>
@@ -11024,7 +11122,7 @@
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="B395" t="s">
         <v>70</v>
@@ -11044,7 +11142,7 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="B396" t="s">
         <v>79</v>
@@ -11064,7 +11162,7 @@
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="B397" t="s">
         <v>189</v>
@@ -11084,7 +11182,7 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="B398" t="s">
         <v>211</v>
@@ -11104,7 +11202,7 @@
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="B399" t="s">
         <v>71</v>
@@ -11124,7 +11222,7 @@
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B400" t="s">
         <v>313</v>
@@ -11144,7 +11242,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="B401" t="s">
         <v>306</v>
@@ -11164,10 +11262,10 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="B402" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="C402" t="str">
         <f t="shared" si="13"/>
@@ -11184,7 +11282,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="B403" t="s">
         <v>75</v>
@@ -11204,7 +11302,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="B404" t="s">
         <v>62</v>
@@ -11224,7 +11322,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="B405" t="s">
         <v>73</v>
@@ -11244,7 +11342,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="B406" t="s">
         <v>196</v>
@@ -11264,7 +11362,7 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="B407" t="s">
         <v>202</v>
@@ -11284,7 +11382,7 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="B408" t="s">
         <v>80</v>
@@ -11304,7 +11402,7 @@
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>728</v>
+        <v>760</v>
       </c>
       <c r="B409" t="s">
         <v>194</v>
@@ -11324,7 +11422,7 @@
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="B410" t="s">
         <v>201</v>
@@ -11344,7 +11442,7 @@
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>729</v>
+        <v>761</v>
       </c>
       <c r="B411" t="s">
         <v>309</v>
@@ -11364,7 +11462,7 @@
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="B412" t="s">
         <v>262</v>
@@ -11384,7 +11482,7 @@
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="B413" t="s">
         <v>84</v>
@@ -11404,7 +11502,7 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="B414" t="s">
         <v>97</v>
@@ -11424,7 +11522,7 @@
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="B415" t="s">
         <v>85</v>
@@ -11444,7 +11542,7 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="B416" t="s">
         <v>177</v>
@@ -11464,7 +11562,7 @@
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="B417" t="s">
         <v>210</v>
@@ -11484,7 +11582,7 @@
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="B418" t="s">
         <v>260</v>
@@ -11504,7 +11602,7 @@
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="B419" t="s">
         <v>103</v>
@@ -11524,7 +11622,7 @@
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="B420" t="s">
         <v>72</v>
@@ -11544,7 +11642,7 @@
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="B421" t="s">
         <v>100</v>
@@ -11564,7 +11662,7 @@
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="B422" t="s">
         <v>185</v>
@@ -11584,7 +11682,7 @@
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>731</v>
+        <v>763</v>
       </c>
       <c r="B423" t="s">
         <v>90</v>
@@ -11604,7 +11702,7 @@
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="B424" t="s">
         <v>206</v>
@@ -11624,10 +11722,10 @@
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="B425" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C425" t="str">
         <f t="shared" si="13"/>
@@ -11644,7 +11742,7 @@
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="B426" t="s">
         <v>83</v>
@@ -11664,7 +11762,7 @@
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>732</v>
+        <v>764</v>
       </c>
       <c r="B427" t="s">
         <v>205</v>
@@ -11684,7 +11782,7 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="B428" t="s">
         <v>108</v>
@@ -11704,7 +11802,7 @@
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="B429" t="s">
         <v>67</v>
@@ -11724,7 +11822,7 @@
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>733</v>
+        <v>765</v>
       </c>
       <c r="B430" t="s">
         <v>178</v>
@@ -11744,7 +11842,7 @@
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="B431" t="s">
         <v>77</v>
@@ -11764,7 +11862,7 @@
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>734</v>
+        <v>766</v>
       </c>
       <c r="B432" t="s">
         <v>274</v>
@@ -11784,7 +11882,7 @@
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="B433" t="s">
         <v>94</v>
@@ -11804,7 +11902,7 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>627</v>
+        <v>659</v>
       </c>
       <c r="B434" t="s">
         <v>66</v>
@@ -11824,7 +11922,7 @@
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>735</v>
+        <v>767</v>
       </c>
       <c r="B435" t="s">
         <v>267</v>
@@ -11844,7 +11942,7 @@
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>736</v>
+        <v>768</v>
       </c>
       <c r="B436" t="s">
         <v>188</v>
@@ -11864,7 +11962,7 @@
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>628</v>
+        <v>660</v>
       </c>
       <c r="B437" t="s">
         <v>343</v>
@@ -11884,7 +11982,7 @@
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>629</v>
+        <v>661</v>
       </c>
       <c r="B438" t="s">
         <v>276</v>
@@ -11904,7 +12002,7 @@
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>630</v>
+        <v>662</v>
       </c>
       <c r="B439" t="s">
         <v>345</v>
@@ -11924,7 +12022,7 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>737</v>
+        <v>769</v>
       </c>
       <c r="B440" t="s">
         <v>185</v>
@@ -11944,7 +12042,7 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>631</v>
+        <v>663</v>
       </c>
       <c r="B441" t="s">
         <v>107</v>
@@ -11964,7 +12062,7 @@
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>632</v>
+        <v>664</v>
       </c>
       <c r="B442" t="s">
         <v>205</v>
@@ -11984,7 +12082,7 @@
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>738</v>
+        <v>770</v>
       </c>
       <c r="B443" t="s">
         <v>104</v>
@@ -12004,7 +12102,7 @@
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>633</v>
+        <v>665</v>
       </c>
       <c r="B444" t="s">
         <v>264</v>
@@ -12024,7 +12122,7 @@
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="B445" t="s">
         <v>179</v>
@@ -12044,7 +12142,7 @@
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>635</v>
+        <v>667</v>
       </c>
       <c r="B446" t="s">
         <v>307</v>
@@ -12064,7 +12162,7 @@
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>636</v>
+        <v>668</v>
       </c>
       <c r="B447" t="s">
         <v>197</v>
@@ -12084,7 +12182,7 @@
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>637</v>
+        <v>669</v>
       </c>
       <c r="B448" t="s">
         <v>106</v>
@@ -12104,7 +12202,7 @@
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>638</v>
+        <v>670</v>
       </c>
       <c r="B449" t="s">
         <v>271</v>
@@ -12124,7 +12222,7 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="B450" t="s">
         <v>175</v>
@@ -12144,7 +12242,7 @@
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>640</v>
+        <v>672</v>
       </c>
       <c r="B451" t="s">
         <v>95</v>
@@ -12164,7 +12262,7 @@
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>739</v>
+        <v>771</v>
       </c>
       <c r="B452" t="s">
         <v>183</v>
@@ -12184,7 +12282,7 @@
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>641</v>
+        <v>673</v>
       </c>
       <c r="B453" t="s">
         <v>264</v>
@@ -12204,7 +12302,7 @@
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>642</v>
+        <v>674</v>
       </c>
       <c r="B454" t="s">
         <v>203</v>
@@ -12224,7 +12322,7 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>643</v>
+        <v>675</v>
       </c>
       <c r="B455" t="s">
         <v>200</v>
@@ -12244,7 +12342,7 @@
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="B456" t="s">
         <v>192</v>
@@ -12263,7 +12361,7 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>740</v>
+        <v>772</v>
       </c>
       <c r="B457" t="s">
         <v>102</v>
@@ -12282,10 +12380,10 @@
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="B458" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="C458" t="str">
         <f t="shared" si="15"/>
@@ -12301,7 +12399,7 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="B459" t="s">
         <v>209</v>
@@ -12320,10 +12418,10 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="B460" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C460" t="str">
         <f t="shared" si="15"/>
@@ -12339,7 +12437,7 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="B461" t="s">
         <v>271</v>
@@ -12358,7 +12456,7 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>741</v>
+        <v>773</v>
       </c>
       <c r="B462" t="s">
         <v>89</v>
@@ -12377,7 +12475,7 @@
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>742</v>
+        <v>774</v>
       </c>
       <c r="B463" t="s">
         <v>308</v>
@@ -12396,7 +12494,7 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>743</v>
+        <v>775</v>
       </c>
       <c r="B464" t="s">
         <v>267</v>
@@ -12415,10 +12513,10 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="B465" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="C465" t="str">
         <f t="shared" si="15"/>
@@ -12434,7 +12532,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="B466" t="s">
         <v>344</v>
@@ -12453,7 +12551,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="B467" t="s">
         <v>304</v>
@@ -12472,7 +12570,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="B468" t="s">
         <v>189</v>
@@ -12491,7 +12589,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="B469" t="s">
         <v>208</v>
@@ -12510,7 +12608,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="B470" t="s">
         <v>311</v>
@@ -12529,7 +12627,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="B471" t="s">
         <v>277</v>
@@ -12548,7 +12646,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>744</v>
+        <v>776</v>
       </c>
       <c r="B472" t="s">
         <v>198</v>
@@ -12567,7 +12665,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="B473" t="s">
         <v>68</v>
@@ -12586,10 +12684,10 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="B474" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="C474" t="str">
         <f t="shared" si="15"/>
@@ -12605,7 +12703,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="B475" t="s">
         <v>181</v>
@@ -12624,7 +12722,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="B476" t="s">
         <v>190</v>
@@ -12643,7 +12741,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="B477" t="s">
         <v>81</v>
@@ -12662,7 +12760,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="B478" t="s">
         <v>181</v>
@@ -12681,7 +12779,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="B479" t="s">
         <v>187</v>
@@ -12700,7 +12798,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="B480" t="s">
         <v>91</v>
@@ -12719,7 +12817,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>746</v>
+        <v>778</v>
       </c>
       <c r="B481" t="s">
         <v>206</v>
@@ -12738,7 +12836,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>747</v>
+        <v>779</v>
       </c>
       <c r="B482" t="s">
         <v>199</v>
@@ -12757,7 +12855,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>748</v>
+        <v>780</v>
       </c>
       <c r="B483" t="s">
         <v>91</v>
@@ -12776,7 +12874,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>749</v>
+        <v>781</v>
       </c>
       <c r="B484" t="s">
         <v>92</v>
@@ -12795,7 +12893,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="B485" t="s">
         <v>178</v>
@@ -12814,7 +12912,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>751</v>
+        <v>783</v>
       </c>
       <c r="B486" t="s">
         <v>108</v>
@@ -12833,10 +12931,10 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="B487" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
       <c r="C487" t="str">
         <f t="shared" si="15"/>
@@ -12852,7 +12950,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>750</v>
+        <v>782</v>
       </c>
       <c r="B488" t="s">
         <v>192</v>
@@ -12871,7 +12969,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="B489" t="s">
         <v>210</v>
@@ -12890,7 +12988,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="B490" t="s">
         <v>190</v>
@@ -12909,7 +13007,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="B491" t="s">
         <v>267</v>
@@ -12928,7 +13026,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="B492" t="s">
         <v>207</v>
@@ -12947,7 +13045,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="B493" t="s">
         <v>274</v>
@@ -12966,7 +13064,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="B494" t="s">
         <v>308</v>
@@ -12985,7 +13083,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>752</v>
+        <v>784</v>
       </c>
       <c r="B495" t="s">
         <v>308</v>
@@ -13004,7 +13102,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="B496" t="s">
         <v>268</v>
@@ -13023,10 +13121,10 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="B497" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="C497" t="str">
         <f t="shared" si="15"/>
@@ -13042,7 +13140,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>753</v>
+        <v>785</v>
       </c>
       <c r="B498" t="s">
         <v>182</v>
@@ -13061,7 +13159,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="B499" t="s">
         <v>78</v>
@@ -13080,7 +13178,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>754</v>
+        <v>786</v>
       </c>
       <c r="B500" t="s">
         <v>345</v>
@@ -13099,10 +13197,10 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="B501" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="C501" t="str">
         <f t="shared" si="15"/>
@@ -13118,7 +13216,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="B502" t="s">
         <v>78</v>
@@ -13137,7 +13235,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>755</v>
+        <v>787</v>
       </c>
       <c r="B503" t="s">
         <v>107</v>
@@ -13156,7 +13254,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>756</v>
+        <v>788</v>
       </c>
       <c r="B504" t="s">
         <v>200</v>
@@ -13175,7 +13273,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="B505" t="s">
         <v>179</v>
@@ -13198,6 +13296,405 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF20E903-A018-2047-B206-FA212AEBEFF4}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE(A1," : ",B1,",")</f>
+        <v>'ARI' : 3,</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C32" si="0">CONCATENATE(A2," : ",B2,",")</f>
+        <v xml:space="preserve"> 'ATL' : 3,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'BAL' : 3,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'BUF' : 3,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'CAR' : 3,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'CHI' : 3,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'CIN' : 4,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'CLE' : 3,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'DAL' : 3,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'DEN' : 3,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'DET' : 3,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'GNB' : 3,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'HOU' : 3,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>399</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'IND' : 3,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'JAX' : 3,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'KAN' : 3,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'LAC' : 3,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>403</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'LAR' : 3,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>404</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'LVR' : 3,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>405</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'MIA' : 4,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>406</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'MIN' : 3,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'NWE' : 3,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'NOR' : 3,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'NYG' : 3,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>410</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'NYJ' : 3,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>411</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'PHI' : 3,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>412</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'PIT' : 3,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'SEA' : 3,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>414</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'SFO' : 3,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'TAM' : 3,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>416</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'TEN' : 3,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>417</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> 'WAS' : 3,</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46207416-CF72-6A4C-AA88-71D8B3253945}">
   <dimension ref="A1:G149"/>
   <sheetViews>
@@ -13212,14 +13709,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="D1" t="str">
         <f>IF(MOD(A1,3)=0,CONCATENATE(B1,",",B2),"")</f>
         <v>Jakob Johnson,LVRB</v>
       </c>
       <c r="F1" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="G1" t="s">
         <v>192</v>
@@ -13237,7 +13734,7 @@
         <v/>
       </c>
       <c r="F2" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="G2" t="s">
         <v>102</v>
@@ -13254,10 +13751,10 @@
         <v/>
       </c>
       <c r="F3" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="G3" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -13266,14 +13763,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
         <v>Keaontay IngramO,AriRB</v>
       </c>
       <c r="F4" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="G4" t="s">
         <v>209</v>
@@ -13285,17 +13782,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F5" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="G5" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -13309,7 +13806,7 @@
         <v/>
       </c>
       <c r="F6" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="G6" t="s">
         <v>271</v>
@@ -13321,14 +13818,14 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>Ko Kieft,TBTE</v>
       </c>
       <c r="F7" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="G7" t="s">
         <v>89</v>
@@ -13340,14 +13837,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F8" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="G8" t="s">
         <v>308</v>
@@ -13364,7 +13861,7 @@
         <v/>
       </c>
       <c r="F9" t="s">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="G9" t="s">
         <v>267</v>
@@ -13376,17 +13873,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
         <v>Jesper Horsted,LVTE</v>
       </c>
       <c r="F10" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="G10" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -13402,7 +13899,7 @@
         <v/>
       </c>
       <c r="F11" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="G11" t="s">
         <v>344</v>
@@ -13419,7 +13916,7 @@
         <v/>
       </c>
       <c r="F12" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="G12" t="s">
         <v>304</v>
@@ -13431,14 +13928,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>Julius Chestnut,FARB</v>
       </c>
       <c r="F13" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="G13" t="s">
         <v>189</v>
@@ -13450,14 +13947,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F14" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="G14" t="s">
         <v>208</v>
@@ -13474,7 +13971,7 @@
         <v/>
       </c>
       <c r="F15" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="G15" t="s">
         <v>311</v>
@@ -13486,14 +13983,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>Grant Calcaterra,PhiTE</v>
       </c>
       <c r="F16" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="G16" t="s">
         <v>277</v>
@@ -13512,7 +14009,7 @@
         <v/>
       </c>
       <c r="F17" t="s">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="G17" t="s">
         <v>198</v>
@@ -13529,7 +14026,7 @@
         <v/>
       </c>
       <c r="F18" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="G18" t="s">
         <v>68</v>
@@ -13541,17 +14038,17 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>Jake KumerowO,BufWR</v>
       </c>
       <c r="F19" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="G19" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -13567,7 +14064,7 @@
         <v/>
       </c>
       <c r="F20" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="G20" t="s">
         <v>181</v>
@@ -13584,7 +14081,7 @@
         <v/>
       </c>
       <c r="F21" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="G21" t="s">
         <v>190</v>
@@ -13596,14 +14093,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>Hunter LongO,MiaTE</v>
       </c>
       <c r="F22" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="G22" t="s">
         <v>81</v>
@@ -13622,7 +14119,7 @@
         <v/>
       </c>
       <c r="F23" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="G23" t="s">
         <v>181</v>
@@ -13639,7 +14136,7 @@
         <v/>
       </c>
       <c r="F24" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="G24" t="s">
         <v>187</v>
@@ -13651,14 +14148,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>Ross DwelleyQ,SFTE</v>
       </c>
       <c r="F25" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="G25" t="s">
         <v>91</v>
@@ -13677,7 +14174,7 @@
         <v/>
       </c>
       <c r="F26" t="s">
-        <v>706</v>
+        <v>738</v>
       </c>
       <c r="G26" t="s">
         <v>206</v>
@@ -13694,7 +14191,7 @@
         <v/>
       </c>
       <c r="F27" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="G27" t="s">
         <v>199</v>
@@ -13706,14 +14203,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>Jeremy Ruckert,NYJTE</v>
       </c>
       <c r="F28" t="s">
-        <v>708</v>
+        <v>740</v>
       </c>
       <c r="G28" t="s">
         <v>91</v>
@@ -13725,14 +14222,14 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="F29" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="G29" t="s">
         <v>92</v>
@@ -13749,7 +14246,7 @@
         <v/>
       </c>
       <c r="F30" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="G30" t="s">
         <v>178</v>
@@ -13761,14 +14258,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>Tyler Davis,GBTE</v>
       </c>
       <c r="F31" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="G31" t="s">
         <v>108</v>
@@ -13787,10 +14284,10 @@
         <v/>
       </c>
       <c r="F32" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="G32" t="s">
-        <v>644</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -13804,7 +14301,7 @@
         <v/>
       </c>
       <c r="F33" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="G33" t="s">
         <v>192</v>
@@ -13816,14 +14313,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
         <v>Zach Gentry,PitTE</v>
       </c>
       <c r="F34" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="G34" t="s">
         <v>210</v>
@@ -13842,7 +14339,7 @@
         <v/>
       </c>
       <c r="F35" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="G35" t="s">
         <v>190</v>
@@ -13859,7 +14356,7 @@
         <v/>
       </c>
       <c r="F36" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="G36" t="s">
         <v>267</v>
@@ -13871,14 +14368,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>Ihmir Smith-Marsette,ChiWR</v>
       </c>
       <c r="F37" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="G37" t="s">
         <v>207</v>
@@ -13897,7 +14394,7 @@
         <v/>
       </c>
       <c r="F38" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="G38" t="s">
         <v>274</v>
@@ -13914,7 +14411,7 @@
         <v/>
       </c>
       <c r="F39" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="G39" t="s">
         <v>308</v>
@@ -13926,14 +14423,14 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
         <v>Reggie Gilliam,BufRB</v>
       </c>
       <c r="F40" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="G40" t="s">
         <v>308</v>
@@ -13952,7 +14449,7 @@
         <v/>
       </c>
       <c r="F41" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="G41" t="s">
         <v>268</v>
@@ -13969,10 +14466,10 @@
         <v/>
       </c>
       <c r="F42" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="G42" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -13981,14 +14478,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
         <v>Mitchell Wilcox,CinTE</v>
       </c>
       <c r="F43" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="G43" t="s">
         <v>182</v>
@@ -14007,7 +14504,7 @@
         <v/>
       </c>
       <c r="F44" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="G44" t="s">
         <v>78</v>
@@ -14024,7 +14521,7 @@
         <v/>
       </c>
       <c r="F45" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="G45" t="s">
         <v>345</v>
@@ -14036,17 +14533,17 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>Jake Tonges,ChiTE</v>
       </c>
       <c r="F46" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="G46" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -14062,7 +14559,7 @@
         <v/>
       </c>
       <c r="F47" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="G47" t="s">
         <v>78</v>
@@ -14079,7 +14576,7 @@
         <v/>
       </c>
       <c r="F48" t="s">
-        <v>716</v>
+        <v>748</v>
       </c>
       <c r="G48" t="s">
         <v>107</v>
@@ -14091,14 +14588,14 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
         <v>Kendric PryorO,JaxWR</v>
       </c>
       <c r="F49" t="s">
-        <v>717</v>
+        <v>749</v>
       </c>
       <c r="G49" t="s">
         <v>200</v>
@@ -14117,7 +14614,7 @@
         <v/>
       </c>
       <c r="F50" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="G50" t="s">
         <v>179</v>
@@ -14140,7 +14637,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -14153,7 +14650,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -14177,7 +14674,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -14190,7 +14687,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -14214,7 +14711,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -14251,7 +14748,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -14288,7 +14785,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -14301,7 +14798,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -14325,7 +14822,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" si="2"/>
@@ -14362,7 +14859,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="2"/>
@@ -14399,7 +14896,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
@@ -14412,7 +14909,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
@@ -14436,7 +14933,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
@@ -14473,7 +14970,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
@@ -14510,7 +15007,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
@@ -14523,7 +15020,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
@@ -14547,7 +15044,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
@@ -14584,7 +15081,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
@@ -14621,7 +15118,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
@@ -14634,7 +15131,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
@@ -14658,7 +15155,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
@@ -14671,7 +15168,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
@@ -14695,7 +15192,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
@@ -14732,7 +15229,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="2"/>
@@ -14769,7 +15266,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="2"/>
@@ -14806,7 +15303,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="2"/>
@@ -14843,7 +15340,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="2"/>
@@ -14880,7 +15377,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="2"/>
@@ -14917,7 +15414,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="2"/>
@@ -14954,7 +15451,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="2"/>
@@ -14991,7 +15488,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="2"/>
@@ -15028,7 +15525,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="2"/>
@@ -15041,7 +15538,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="2"/>
@@ -15065,7 +15562,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="2"/>
@@ -15102,7 +15599,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="D130" t="str">
         <f t="shared" ref="D130:F149" si="4">IF(MOD(A130,3)=0,CONCATENATE(B130,",",B131),"")</f>
@@ -15139,7 +15636,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="D133" t="str">
         <f t="shared" si="4"/>
@@ -15176,7 +15673,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="D136" t="str">
         <f t="shared" si="4"/>
@@ -15189,7 +15686,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D137" t="str">
         <f t="shared" si="4"/>
@@ -15213,7 +15710,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="D139" t="str">
         <f t="shared" si="4"/>
@@ -15250,7 +15747,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="D142" t="str">
         <f t="shared" si="4"/>
@@ -15287,7 +15784,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="D145" t="str">
         <f t="shared" si="4"/>
@@ -15324,7 +15821,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="D148" t="str">
         <f t="shared" si="4"/>
@@ -15349,7 +15846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AD1C7F4-AB45-384C-BC1C-27F581CCC6C5}">
   <dimension ref="A1:M255"/>
   <sheetViews>
@@ -15386,7 +15883,7 @@
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="5" t="s">
-        <v>645</v>
+        <v>677</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -15412,7 +15909,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -15420,7 +15917,7 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="6" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -15438,7 +15935,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
-        <v>648</v>
+        <v>680</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -15446,7 +15943,7 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="6" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -15464,7 +15961,7 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="5" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -15490,7 +15987,7 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="5" t="s">
-        <v>650</v>
+        <v>682</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -15498,7 +15995,7 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="6" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -15516,7 +16013,7 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="5" t="s">
-        <v>651</v>
+        <v>683</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -15542,7 +16039,7 @@
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="5" t="s">
-        <v>652</v>
+        <v>684</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -15568,7 +16065,7 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="5" t="s">
-        <v>653</v>
+        <v>685</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -15594,7 +16091,7 @@
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="5" t="s">
-        <v>654</v>
+        <v>686</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -15620,7 +16117,7 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="5" t="s">
-        <v>655</v>
+        <v>687</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -15628,7 +16125,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="6" t="s">
-        <v>656</v>
+        <v>688</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -15646,7 +16143,7 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="5" t="s">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -15672,7 +16169,7 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="5" t="s">
-        <v>658</v>
+        <v>690</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -15698,7 +16195,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="5" t="s">
-        <v>659</v>
+        <v>691</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -15724,7 +16221,7 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="5" t="s">
-        <v>660</v>
+        <v>692</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -15750,7 +16247,7 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="5" t="s">
-        <v>661</v>
+        <v>693</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -15776,7 +16273,7 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="5" t="s">
-        <v>662</v>
+        <v>694</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -15802,7 +16299,7 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="5" t="s">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -15828,7 +16325,7 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="5" t="s">
-        <v>664</v>
+        <v>696</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -15836,7 +16333,7 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="6" t="s">
-        <v>665</v>
+        <v>697</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -15854,7 +16351,7 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="5" t="s">
-        <v>666</v>
+        <v>698</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -15862,7 +16359,7 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="6" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -15880,7 +16377,7 @@
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="5" t="s">
-        <v>667</v>
+        <v>699</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -15906,7 +16403,7 @@
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="5" t="s">
-        <v>668</v>
+        <v>700</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -15932,7 +16429,7 @@
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="5" t="s">
-        <v>669</v>
+        <v>701</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -15940,7 +16437,7 @@
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="6" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -15958,7 +16455,7 @@
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="5" t="s">
-        <v>670</v>
+        <v>702</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -15984,7 +16481,7 @@
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="5" t="s">
-        <v>671</v>
+        <v>703</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -16010,7 +16507,7 @@
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
-        <v>672</v>
+        <v>704</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -16018,7 +16515,7 @@
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="6" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -16036,7 +16533,7 @@
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="5" t="s">
-        <v>674</v>
+        <v>706</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -16062,7 +16559,7 @@
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="5" t="s">
-        <v>675</v>
+        <v>707</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -16088,7 +16585,7 @@
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="5" t="s">
-        <v>676</v>
+        <v>708</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -16096,7 +16593,7 @@
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="6" t="s">
-        <v>673</v>
+        <v>705</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -16114,7 +16611,7 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="5" t="s">
-        <v>677</v>
+        <v>709</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -16140,7 +16637,7 @@
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="5" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -16166,7 +16663,7 @@
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="5" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -16174,7 +16671,7 @@
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="6" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -16192,7 +16689,7 @@
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="5" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -16200,7 +16697,7 @@
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="6" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -16218,7 +16715,7 @@
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="5" t="s">
-        <v>681</v>
+        <v>713</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -16244,7 +16741,7 @@
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="5" t="s">
-        <v>682</v>
+        <v>714</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -16270,7 +16767,7 @@
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="5" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -16296,7 +16793,7 @@
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="5" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -16322,7 +16819,7 @@
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="5" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -16348,7 +16845,7 @@
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="5" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -16374,7 +16871,7 @@
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="5" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -16400,7 +16897,7 @@
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="5" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -16426,7 +16923,7 @@
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="5" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -16452,7 +16949,7 @@
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="5" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -16460,7 +16957,7 @@
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="6" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -16478,7 +16975,7 @@
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="5" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -16504,7 +17001,7 @@
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="5" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
@@ -16530,7 +17027,7 @@
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="5" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
@@ -16556,7 +17053,7 @@
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="5" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="C138" s="7"/>
       <c r="D138" s="7"/>
@@ -16564,7 +17061,7 @@
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="6" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="C139" s="7"/>
       <c r="D139" s="7"/>
@@ -16582,7 +17079,7 @@
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="5" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="C141" s="7"/>
       <c r="D141" s="7"/>
@@ -16608,7 +17105,7 @@
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="5" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="C144" s="7"/>
       <c r="D144" s="7"/>
@@ -16634,7 +17131,7 @@
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="5" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
@@ -16660,7 +17157,7 @@
     <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="5" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
